--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/26_Diyarbakır_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/26_Diyarbakır_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96ED9708-2F01-4010-ABB0-666156F9B41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DD361E8-6DBE-4C8B-954E-AA5DE27ED16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="669" xr2:uid="{AE8505E7-39BF-4D1F-8436-1E939209500C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="669" xr2:uid="{2EC40A39-6E0D-4BD1-97FE-58F3E480667E}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -946,13 +946,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{082BEE65-309C-42C3-B08B-B41D58C99E98}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{BE9668B8-A4E5-40FE-82E4-74DFAFA32971}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{88A0D842-9558-4D08-B3D5-5ED049BCE4C3}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{CB38293B-155C-4FEB-AC89-C5C583DC02C4}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{1BC1D592-0A03-40A0-8BCF-4A7839216943}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{B7B9C566-B5D2-42BF-AB60-13516C116098}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{4EB81CF8-3479-42EF-B0CA-895CAE7EFD8F}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{63751D6A-2612-42C4-A483-270B343F1622}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{C265A3E0-2B31-4A7A-9CF7-258E99950644}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{5B0802EC-C152-471B-A731-ECBEDA4DE557}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{6A90F22E-5ABF-4C3A-900E-093656C565FB}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{2B5B3D42-AC61-4D88-B579-30A582FE2A8A}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{9162C63B-FD6D-410A-9BEA-0CCD042A1CB4}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{BEDC21FF-B98E-4688-94AD-E32C370F4E38}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1322,7 +1322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E626DBF-4347-4CA7-A7AD-BCEE576CCF19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C4FDE5-ECEE-41C7-8653-59CBF8701779}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2564,18 +2564,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{256EAA27-609D-49A7-AEC1-8CB8F4977BD1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{35390F2A-42D3-4545-9B54-84ADF55BAFE9}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B1BB1F3A-5B96-47C1-9295-1B409D8EC18F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{238014B4-FFBB-4A34-B878-FE607BAA1B48}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{8DB1025D-5ECC-41AD-8321-8D841AC7C0D9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6497C7FB-AD6A-402B-9B13-A6341EFEDA16}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4D6E3CA0-5329-401A-B7B6-DCAC53E99419}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B86C6CD1-0766-4A1C-AB82-768E4037AF92}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4832DB2E-91B8-4474-9F62-94BDDB5BE83C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B4B9E1A5-F38A-4C93-8BA9-15931BF1E820}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BFB726AB-221C-45C6-82EA-ACBC0F065D63}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E3EA2D99-4BB6-4DC8-B94C-958BC7368765}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{36EA612E-3BD0-44FC-87F5-3DCE2BDF02EF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EBE4129E-D3FC-4AAF-835E-F17302A488FC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{35767913-F9F0-4467-A8E7-AD901A555000}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E6A98754-685C-4840-84EF-684BE2F21303}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{F2302BF6-DF5C-4501-93D3-ABA63A36CF50}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3847C18C-D007-4402-933D-E4ED4A1687CE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{783B353C-2964-4E29-B002-7E31E89F7EA7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{52FBCAB0-2080-426D-83E8-B56438EC2E4D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2969A4C9-903E-459A-80D0-63FA4A96CAD4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{867E9387-DB3D-456E-BBDC-B39F8602194A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{51325D52-AA46-45D9-84EF-33E57E6E1654}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{10945189-1CCA-42D9-9BE3-86EC62D2A807}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2588,7 +2588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDA8CFE-50B1-461C-864B-0F54F491B6CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9FEE143-4F7F-4539-B337-4204DE8FACFE}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3815,18 +3815,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8AFA48A1-820E-47EC-937F-20E9952AB99A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5E133C09-1609-476A-9AC7-53C378179F73}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E5079504-3CB1-4356-B9E4-FCF4E805F422}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6C8B6800-61C3-4E7F-BA2D-2F8CD79D8526}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{AC8CD325-CFF4-46D3-A364-9A91FCECC4F9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CE4CE7BD-B6A1-4DC4-B0D4-E5FC67515D9C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8403502E-E6E5-4C7F-8E70-8213875E552E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0098C2AA-3C48-46EC-B186-64C394578A55}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6A0028EA-D06A-4E8B-B68D-F0DCBAF33438}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4ABEAEF8-6E23-4BB2-BA46-124FB34E79AC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EBAF33E1-2A31-4A1E-AB21-DEB4CCB2D75A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8E804022-3B2D-450A-8B8F-BDFD909C2466}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D9EF61E1-1DBD-4024-9E17-B1AC450D9278}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{401006B8-5F8F-4C6C-8832-C8D5CA2F6724}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D3B34EEC-2E09-41CD-98C8-262C01CAB00D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{601FADB6-6D1D-490A-8CA7-AACABBCDC881}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{09482112-D766-4852-859A-1B757F220006}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EE0E3C23-C8F5-49FF-BE5E-8F03FA625D9D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{638A3707-85BA-4FC3-B7AC-F0D3129A73D6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{20342FF6-D466-4C21-9CF5-622CC53BF360}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{125F41A1-BD6A-4DA6-9F57-5CF85C7416F7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{46D7A9E4-4A6E-47E2-BD45-466A38055DCC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{24ABF621-1118-4BCA-92DB-E471F73183D2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CFB02C41-32B4-45DE-8588-E7C944E00241}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3839,7 +3839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4947D2F7-C2E2-44EB-956F-ED1F1F2873FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38369A1A-26D5-4558-8E74-48924C9FD841}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5062,18 +5062,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ECF77833-F86C-4C1C-A051-969C4DBCC2E7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2BCED1FC-A483-4652-9C1A-625714AD8A28}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{63218F9C-CB14-48D0-ACA0-5412B53D4F78}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F40E05D6-B561-4062-9AA4-4E6CE8C8EFEE}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{75EF98A2-A3A2-4350-BFF2-782D1CC48E41}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BC1488EA-2603-43BF-AE63-3C9DD5BC2825}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9AD78049-200B-48EF-A98B-82282814182C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CD01C80E-076A-4E6A-812E-B40B5FA3A043}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EB4CF944-E7D6-4C38-A7A4-A1C8FD685210}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{111E8578-270C-4E8A-9D7F-270DCBAA34B5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C7235B7A-9E53-4E92-87EA-92F66D2A1F8C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5BBACCF3-0D26-47DE-A65B-A8CD83ABF46F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EACAB2E2-4AE8-4EB7-A575-341728DEE270}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2AB4F808-3EAB-4C19-944B-28B59E30B587}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{56391198-266E-4D84-AC97-ED557B9A3CAA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DEE6C1D6-A197-4D11-ADC9-AC0CFD9D1F86}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{6B3752B0-0B61-4604-B714-84E37272594C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FF7D432C-6458-4FCC-B704-4391BED67699}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{16DBC0BD-7455-4BEA-AE14-5BE61810B992}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0D3B7071-2867-494E-993E-C669D24C949C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{43B993CC-BD7A-4C56-B1F2-EC964822DB11}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C22B061D-0D1B-4013-94D7-1BA4B052584E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B323107D-5761-4349-BFD1-738E514F8ADC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{30B64BEC-5AD5-4607-8385-C424AE2E742D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5086,7 +5086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7E494C-A12F-4D18-A9C5-0244947D62F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A9AD46B-E917-476E-A410-E7E494B4744B}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6288,18 +6288,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DD13E332-C6E0-41A9-ADB8-FDE34998C940}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{522AAD38-0C97-4306-8C8E-F7C9322E7448}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AAFF046F-2670-42AF-AA61-B70036488D3F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4466EE36-1A03-4201-8568-7B2F105243B4}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{353AC669-1051-4C2E-A00F-7F5707B734CC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5AD9D04E-4BD6-4EAD-B71F-2625409157E7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C7CF7C72-62B5-413B-8D38-B2A6EB417068}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0B1E0CEB-D023-4330-A23C-DFC038EB5612}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{24363D55-A1D4-49A2-A3F6-528206057ABB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4C1C2A88-C7BB-44BC-ACD7-93C3944FF5ED}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A0F23FE0-7B51-42AD-9297-7A10BD899039}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{97799420-8CAB-45F2-A568-5514D60240AC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{62A37D79-D633-4640-90C4-1EBC9865C1D1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{083706C3-89D0-4123-99F8-6CE4F9EEE418}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{49FC1480-A7F4-4E5B-95CB-81B2B4ABE163}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{96DCF5EC-8C2A-4B4D-ADD7-C99F4249B167}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{79D3C5AF-7BAE-4AD4-A0B0-6324EE2A3CB4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A78B42B3-A979-4959-90C9-162F0DF76E12}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CCD85096-4163-4A89-A67C-B28F23EEFB7D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CB9AEA40-43BF-4156-8573-6B4FBF1ACE1B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D6229B1A-46ED-4F71-8899-5D5CC4A1502F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A75A8305-0AE6-4B65-ABBD-907BE2BDF1FB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F32A91FB-134D-49BC-BBA3-6AB3D07EE54B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B347367B-4C66-4321-8B88-3C2E3B747E6F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6312,7 +6312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5801BADE-46CF-4521-A72F-DC31726A57C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A5555D-7A9E-4F20-89E5-C9A8B6042584}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7551,18 +7551,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0FFD11C6-2CAC-4874-A4CF-A5A4C594E8B1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EC55FA1D-FC8F-4D0D-B225-347B9BDA05D9}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F7878B94-0AFB-42CD-B75B-7AFC10FD2D14}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F7124A55-D569-4162-9250-BA758BE260A1}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{0CA6AC9D-1A2D-4744-917D-839316146247}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CC2CDC40-C38A-4811-BD5D-7EE0FFF46CD4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{28395355-8468-4729-B66A-05ADCCF1D447}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2EC8BB23-42BE-4401-A035-715AD9E8AD69}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4639F69F-5704-404F-BCAC-57CBA1F0968E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DEF3C2D3-B7E1-4F4B-A268-19D90524CE3F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4B6F9575-3AFE-4EAB-AC38-DBC172983293}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F71E04C3-C907-4C55-A3EA-208F0C761B18}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DB7E9953-30D5-4E56-8D28-56DD7C7741F3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{422593BB-C2C3-469C-92D8-4ED318B8CD5B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0A1E04B5-165B-497B-964D-1737B14EAC23}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{02699B8B-34CD-482F-B831-45A966E83C06}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{65243712-BD8C-414A-B6E8-F5187C63E530}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D2580566-B969-42BF-9F08-0F741673362D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7FE5A33C-EF04-4373-93E8-71439B59373B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{ECABAD68-2019-4D5A-A96E-280438B07E80}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{554C616E-7A5B-4503-AE7A-87B3C68E5A60}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3AD8ABA3-B4F0-4F27-BAC3-9C5FD5F169BF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C7953BF0-0FF9-4A04-A0C8-202EF867F72C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{36B6F9B5-3B9B-42ED-94BF-42D64B0A7876}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7575,7 +7575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7E0069-FD9B-45EE-86A9-3D4675CE616C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A694D4D5-F07F-478D-9AD0-49449544A77F}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8818,18 +8818,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F098E170-7A81-4E98-827D-420EF60D377B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A1C9DF16-A334-4E5E-BB52-84A9CA583628}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B1C93E8B-DD16-4D13-84CE-04F3E9F923DD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{147C1F22-66CD-4FD2-9223-455F62256CE4}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{736F72D0-BD44-485A-8BA5-EEFC748A87D9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B832E46C-9972-465F-B323-BCF0E3C13505}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E445E9A1-7574-4AB0-957B-557D4E2A7520}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9C591E34-7DF4-42AF-82DF-79A9E238D77F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D8A00E4D-ED22-49E4-A8EA-42A10E586A33}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C20E66A7-048C-40BE-BAA1-342A958CA60F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2931C8C9-D468-42AE-829A-8FCD6C2C0802}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A6CA89FD-B5B5-4BD5-9EC1-24212BCD9C7F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{44EBBC91-8270-4E92-9D4A-9B18DD56D622}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F5912576-802E-410B-A9A3-A608C5626F72}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D932D4E0-061D-44F2-91EC-C65566AD5D87}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B19CD861-24BD-4208-BE30-115C4521C15F}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{76D9EAA5-0B59-46A6-9B85-D3A95AF745C9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9C3749D1-E72F-41E5-8C44-30010C610074}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E9D6B713-8A00-4338-9837-6F3D5819B2F6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{31454FB9-86BC-4D8D-8CCF-D1048091BDA5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A3B86D3F-97BB-4965-AF36-6800A7B4A13E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7B591E0A-AC5E-43F9-8331-2B113AFAB99C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{24BB447D-E4E3-4BBE-92D1-94C2F2DC344C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{32FE4E82-A5E8-46CF-9C4F-EFA94889AF83}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8842,7 +8842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620432E7-ECD9-4113-9832-69267B5858F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1702F9CD-AEAC-460F-BC4B-BFF207F5E907}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10085,18 +10085,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2AF5D8B0-6D42-4A71-9F83-F8CEB9B71DDF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5FE48F05-7890-4C7E-81A1-C23F9F0B5DCE}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C4535DB1-B3AD-4C04-ACBB-CCE2C49EDEC1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E0D5DD2A-B478-49A1-BE69-78D0324B98A3}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{5F297544-EE48-49DC-966B-31A2AB93591C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9316A423-FBAF-4BB3-9A7F-BDB45C16AE18}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C03E2258-07E9-4179-A90C-5CEE8D3E19E2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8C421056-CFD6-4F5B-9A84-9A748B4B0AC1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F2959DBE-4719-4541-A15B-9B853B34F952}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5D8C3F65-7807-4024-B730-00C4FC6F0427}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A352F03C-5C50-4308-A63E-230AB7EE8567}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{991868D4-FF9E-43A9-B3F3-D52B01422366}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E08F505D-ADA6-4C29-9E97-8C23717C760D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C8DCEF92-408F-42F7-B44A-E00A051795E1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C3A02E3C-97D8-42A3-B11D-8FD2CBD8E6B4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C4CCD38B-1794-4EB6-BCB6-FE0B1A56BE4A}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{0E4B3D66-51A2-481B-AC07-9245D78F071E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{822BE2A5-2309-4962-961E-4603E29EC1D9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BD8B05E1-00B3-49C5-B9AA-4A46F36061A4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FA2F54C6-DD63-418E-ADB4-B401F59C6ED8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{087E42AF-0746-46ED-AA6D-7D5474790928}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DEF54CC0-F886-4183-B389-1CBC35D737AD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DB62E651-611C-438C-97BE-D6BA8ACEA8D5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{360E32E3-F212-442A-8F4B-D78517906D50}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10109,7 +10109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90197F5A-2B01-4DD9-A210-259AC928F613}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD973EDF-C18E-4CE5-89AC-568BB0FAFBCF}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11348,18 +11348,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8125406F-8A91-414C-A5E3-538B74344077}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6C770198-A1B1-4820-8734-D1F9C90B38C0}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C809C5A1-3B63-47D1-9DEC-1DC7C4FD00F5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D88349A2-9373-4644-8EE0-7D6D1A10ECDC}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{9F961304-B485-4C83-B938-39252895124C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3CCA149B-C4C6-457F-9FBD-0CD007A26025}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FAD59F20-5825-4FAC-9BAD-E14B74119177}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C66278D0-C064-4BDE-AA1F-ADD69B43463F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E51D6EC3-F774-4C31-9461-E69BAB052852}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B971BFC1-3D92-42D0-B958-A665B579C5B3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B615EEB2-B3C9-4C69-B53B-C89B64C933A6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DDAD6E2A-C0EA-459E-9CCC-C320322F7457}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{59500F1E-7E52-4711-B886-FEC94FB7796D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8E96C2C9-04FF-41D8-884F-0C08238B864F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6E5A0454-4E11-435E-BDDC-CBF92843C383}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C337B009-CF9B-4230-85DB-A0FEE3D97F67}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{11FAB6B6-D3F5-4B82-8789-DC68AF88EADC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{683F57E4-C07F-4375-BDDE-AF6B2DA40F8C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A5662177-6516-4262-A477-7610533AFD74}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{89E7A7A1-DEEC-4501-88CF-739FF4E6B1A0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B3130F65-ECA8-4FB8-A5E6-44AC60D684CB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B09D9C5D-C64C-4678-85CD-B0081CAB922B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0C1B9799-54AA-492A-B00C-6A1418A03AA1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CCD683D0-A8B7-4DA7-BAC7-1AF181D1BD45}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11372,7 +11372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620A0A95-8E46-4339-B058-1F4FC7F0DC87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B964098E-567B-44A1-B29C-38B7757CD9AC}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12611,18 +12611,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{05C65A40-2B18-490A-9E9E-3226F60DE892}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1622AE41-6361-423E-A66F-3A8931B6FF92}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{61610312-9F60-44D8-B7EE-EFD9AFA9904A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9FB90419-A665-4632-BD15-75689A0F6585}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{287DB529-1619-4BF0-A9DD-2D9318AD9528}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6C050AEA-E832-42C3-894F-5AFD63D368C0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CF61605F-5632-4633-90AA-012D9E81D391}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B8C17D2E-6875-40D1-853B-C75A8121B721}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{06A43E8B-AFFA-4BD8-8F07-EDAA0E3B4265}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F9F47D71-2A32-4428-A545-74EA43E23DEB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5237789B-25A0-4EB9-AE6F-3AB2BE5B07B5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F837BE5C-080A-4F94-9CD3-15950324822E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{06082CBE-FFC4-4DA6-B48E-D94E712AD73F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F4DEF288-0F4D-4B27-B47D-824DC362B410}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E5495616-B37D-4EF3-AD75-2E436CEF2B14}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1C8892E0-8073-4CB9-9260-E01F0AC085CB}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{F94CC928-A647-4EEC-A069-2E3837732F39}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{890AE6F4-D050-4F23-9E74-A82816037D54}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A97DC07E-FC0A-4FFB-8CF2-8F626ED9D6C7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6B40B9DE-3EC1-492C-B411-E2482FAF3AEE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B31B55C8-FB19-44E4-AE00-A894F9905E33}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0BF2DD93-940A-4934-B040-6E7216D9B539}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{51470713-F42F-4482-BF00-AAEFF5D9085D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{51BBD325-CA22-42F0-A1F0-8099630E82FB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12635,7 +12635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86CA6F6F-A0CB-4DEB-A32F-DFB6D5C3D858}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8411CB80-AB04-4C3C-AA33-5B073265C0C4}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13874,18 +13874,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9C30831F-6D56-440F-B16C-7A5770D67118}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C6BF7B0D-3D03-42AA-AC61-C51BDCFCF43B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6F5CB11E-5B89-45DB-B760-53B4DBEC559A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AFF88E66-2C7E-4E8C-A2B7-1D489F0322F7}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{2B9A4ED7-D6EA-491E-BA00-7AF01EB5FD2C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1693FB82-1021-457E-841F-D5C8B6BD7719}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{520290B9-483A-45A2-9B26-D51FB07611A0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D6178E66-4404-433F-94A9-2B776ADF8B11}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CB882A97-6B4D-4263-B487-D58BD626184F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{61D322B9-A003-4761-AAF8-6EE6B1E3AAEF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{38E53837-9042-4988-A0CF-E76C9390715F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{25FFCD6A-00FF-40D1-AC75-8C976937E697}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B8EE0599-12AE-4264-B0D8-52410C76C9BF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{47AE1639-D30B-4944-BE74-8843F9264FFC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{42E193B4-17A3-4D6D-BA98-D025F69E741F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1A603213-44A4-4EBD-8384-0756EBB67452}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{19C64C1E-1B4D-4F4A-BB6E-022B39CE3EC2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F2D5EBFB-4239-4816-9B7F-45AC035ABADA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6BF272B3-E73F-4B0A-A1BF-24EFE99F66D9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EA86D62C-A028-423C-A02B-A620099A8623}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3C4FC2E5-0F6E-40B5-A590-E76C10A8BC81}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{47859CC1-F00F-46CF-BE1A-3BCBC6CDEC7B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BD20F997-96BC-47FC-88DA-18CC9241F4B6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{43689698-1F38-4479-9439-9E612B97B9B7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13898,7 +13898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{877FB043-B077-404E-9995-DE661722C1F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151E020A-602F-4F0B-9401-E96ECF27E823}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15133,18 +15133,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1A7B554F-6139-4846-B378-22EB11C0F9DF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5E01153C-74D7-4EDE-9B93-36E52783CFF0}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0D6062A5-EAA1-4EDC-B140-FE1126E9A330}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5071C089-4226-4488-AF12-01ADB98B42F4}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{B90F7004-76A2-4D84-8810-A017F7421DEB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8C4986F4-1C58-4FED-8EB1-5555C17B14B8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A983F8BC-E95C-4ED7-A7BE-A3986B62D29E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E1448740-6E16-414B-820A-C6138A714624}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5B8A514B-4969-4D0C-AD87-131CD5189422}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D5569327-658A-4776-976B-BD52B70A56D3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{331DA8D1-441E-4738-906C-16BD2CADB81C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F2943AD0-CF6C-46F1-BD0A-9CD3893C6C51}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9AD5B5AF-96AE-44F5-9CDC-A1EF58F4E20F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1B13EC40-B23F-49B9-98F9-E33FD358781F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F829C78A-8238-47D2-8305-208EF5ECC01B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{659A3159-F3BA-4BB0-AE9C-0E355E3FD1CF}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{FA32F457-CA37-4724-BF69-E4653C8D5657}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{09EFF231-4F77-43D1-8F28-3B4A52CAA353}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FDE8D2FD-A1FB-4C4A-B75E-F53B4DE2F70B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2FD7ACDD-13F7-4B08-95F7-F6D908B7D146}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A4BD2EA6-6E29-4631-9BE6-50C4839C7AE7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6EE37BF4-3991-470E-88E6-B143629BEAE3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{94041AAE-AC59-408D-8BFA-4CFFE011ED0B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{16C56D1D-955A-4544-A3E1-2280D1271C45}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15157,7 +15157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F7633A-46B5-4870-949A-3B454D6F8A15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82EA1AA-E672-4D62-BA7D-D292AF967E73}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16392,18 +16392,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AC47FF3A-9B05-49AE-B146-5266890EE98F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{29C2F9D1-F920-4932-ADC7-8E46A4143B17}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E81529AA-9042-4F76-9657-9822BE952BC9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9AFE7842-E02D-4A33-8994-9C3DB29B01AB}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{58CC952D-8F67-4EBC-9277-4EAA92E379B7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{389047CA-EFBD-4111-A4BE-4349CA051548}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C15C0CC9-BBC9-46AF-AC6A-79F7B2579900}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{74F601B9-77F6-4968-A81D-5F4DEA6E9124}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F4EDAE0D-A7A6-4F0F-BCF1-E764B920D8F1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4738B36F-C3A1-43FE-BBF1-9AA2F7EA503B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{391FECC7-540D-4FAC-99A5-62C81C6C3FF6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5AF0E228-7EA5-4341-A4CF-6594D19032E3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ACA63785-6139-43FF-BA7F-36D44CE9AAE7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{98399E6A-0CC6-45DB-933E-08884686D281}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B49BCDDD-ADAF-48DE-9F3F-2B51D4F8B134}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FD48FE85-C77D-4D3B-9A1C-6DFBC2311DCC}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{E5585208-1471-449C-9D1E-4C60F168A52A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AF41A756-16F0-4EB4-A6AC-88C12AD87E04}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0C79EFD4-3735-433F-95DA-85A331C91E3C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{42F31E7A-C781-4BEA-B8E7-F675BDF12BDF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B83A142A-AEE4-442C-9C64-116A9A268689}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2471141E-AE4F-47F3-9F5E-68D2635AF8BE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{261E71B3-D533-490C-96D6-A8B0124F418B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{98A36665-968E-47B7-8A0F-2DD1F08389A5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
